--- a/biology/Botanique/Val-Jalbert/Val-Jalbert.xlsx
+++ b/biology/Botanique/Val-Jalbert/Val-Jalbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Val-Jalbert est un ancien village du Québec, au Canada, devenu ville fantôme. Son territoire, qui aujourd'hui fait partie de la municipalité de Chambord, au Lac-Saint-Jean, a été transformé en attraction touristique sous le nom  Village historique de Val-Jalbert dans les années 1960. Le village a été classé site historique, le 8 août 1996, par l'office du tourisme du Québec[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Val-Jalbert est un ancien village du Québec, au Canada, devenu ville fantôme. Son territoire, qui aujourd'hui fait partie de la municipalité de Chambord, au Lac-Saint-Jean, a été transformé en attraction touristique sous le nom  Village historique de Val-Jalbert dans les années 1960. Le village a été classé site historique, le 8 août 1996, par l'office du tourisme du Québec.
 Situé à la limite des municipalités de Roberval et de Chambord, il est fondé en 1901 quand Damase Jalbert, originaire du Lac-Bouchette, y construit une usine de pâte à papier. L'emplacement est idéal, car l'énergie nécessaire à l'actionnement des machines peut être produite par les deux chutes de la rivière Ouiatchouan, respectivement de 72 et 35 mètres.
 En 1904, au décès de M. Jalbert, la compagnie est achetée par des Américains, mais ceux-ci furent bientôt acculés à la faillite. En 1909, elle devint propriété de la Compagnie de pulpe de Chicoutimi. Presque dix ans plus tard, l'épidémie de grippe espagnole de 1918 fait des ravages parmi sa petite population. 
 En 1927, la Quebec Pulp and Paper Mills Ltd., qui possède l'usine depuis seulement un an, cesse toute activité en raison de la baisse de la demande de pâte mécanique non transformée.
@@ -515,9 +527,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le village fondé par Damase Jalbert (1842-1904) en 1901, qui créa aussi la Compagnie de pulpe de Ouiatchouan la même année, porta d'abord le nom de Saint-Georges-de-Ouiatchouan, du nom de la rivière qui la traverse. Il fut ensuite renommé Val-Jalbert en 1913 par Julien-Edouard-Alfred Dubuc, propriétaire de la Compagnie de Pulpe de Chicoutimi en l'honneur de son fondateur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le village fondé par Damase Jalbert (1842-1904) en 1901, qui créa aussi la Compagnie de pulpe de Ouiatchouan la même année, porta d'abord le nom de Saint-Georges-de-Ouiatchouan, du nom de la rivière qui la traverse. Il fut ensuite renommé Val-Jalbert en 1913 par Julien-Edouard-Alfred Dubuc, propriétaire de la Compagnie de Pulpe de Chicoutimi en l'honneur de son fondateur.
 </t>
         </is>
       </c>
@@ -546,14 +560,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est en 1855 que les premiers colons, venus de Charlevoix, décideront de s'installer dans ce qui deviendra Val-Jalbert. En 1861, un moulin à bois et un moulin à farine sont construits au pied de la première chute de la rivière Ouiatchouan. En 1870, un premier barrage est érigé sur la rivière Ouiatchouan et le moulin à farine est relocalisé sur la pointe formée par le ruisseau Ouellet (devenu rivière Ouellet) et la rivière Ouiatchouan.
 En 1871, le territoire fut officiellement reconnu comme étant une municipalité, Canton Charlevoix était né, sa population était d'environ 300 personnes. La municipalité compta alors sur l'agriculture de subsistance, un moulin à scie, une meunerie et une école de rang (ouverte en 1872) afin de subsister.
 Le 13 mars 1901, M. Damas Jalbert, entrepreneur forestier originaire du Lac-Bouchette, acheta des terres dans le but d'y développer une pulperie. Le terrain, appartenant à M. Frank Ross, est situé dans le Canton de Charlevoix, près de la première chute de la rivière Ouiatchouan.  
 Le 27 avril 1901, fut fondée la Compagnie de Pulpe de la Ouiatchouan par M. Damas Jalbert, M. Wilbrod Jalbert et M. Étienne Paradis, son siège social fut établi à Québec. C'est donc cette compagnie, sous la présidence de M. Étienne Paradis, qui construisit, en 1901 et 1902, une pulperie au pied de la chute Ouiatchouan et procéda à l'érection d'une première partie du village. Ils entreprirent également la construction d'un barrage de 9 m de hauteur et d'une conduite forcée, en acier, d'une longueur de 81 m. Une dynamo ainsi qu'une scierie, au pied de la chute Maligne, viendront compléter le complexe industriel du désormais village de Saint-George-de-Ouiatchouan.  
-Durant son premier hiver d'opération, l'usine, appelée à l'époque moulin Saint-George de Ouiatchouan, produisit à plein régime de la pâte de bois mécanique[3].
-Le 31 mars 1904, la mort de M. Damas Jalbert vint endeuiller le village. Mort à St-Jérôme (Métabetchouan) à l'âge de 62 ans, il laisse dans le deuil sa femme et ses huit enfants. Le lendemain de la mort de M. Jalbert, des investisseurs américains se portèrent acquéreurs de la compagnie de pulpe de Ouiatchouan[4].    
+Durant son premier hiver d'opération, l'usine, appelée à l'époque moulin Saint-George de Ouiatchouan, produisit à plein régime de la pâte de bois mécanique.
+Le 31 mars 1904, la mort de M. Damas Jalbert vint endeuiller le village. Mort à St-Jérôme (Métabetchouan) à l'âge de 62 ans, il laisse dans le deuil sa femme et ses huit enfants. Le lendemain de la mort de M. Jalbert, des investisseurs américains se portèrent acquéreurs de la compagnie de pulpe de Ouiatchouan.    
 Désormais, la compagnie portera le nom de Ouiatchouan Falls Paper Company et le village sera renommé Ouiatchouan Falls. C'est avec l'objectif d'étendre les activités de la compagnie au papier journal que les Américains se portèrent acquéreur de la compagnie qui, selon certaines sources, éprouvait des difficultés financières.  
 Entre 1904 et 1907, les dirigeants de la compagnie firent construire 5 nouvelles maisons double sur la rue Saint-Georges, portant le nombre total de constructions à 11, incluant un hôtel.
 En 1907, la compagnie essuie alors des déboires financiers. C'est alors qu'arrive M. Julien-Édouard-Alfred Dubuc, alors directeur-gérant de la Compagnie de Pulpe de Chicoutimi ; il acquiert une partie importante des actions de la Ouiatchouan Falls Paper Company et devint ainsi l'un des 4 directeurs administratifs de la compagnie. En octobre 1907, il est nommé directeur-général de la pulperie et il acquit progressivement, sur une période de six ans, soit de 1908 à 1914, toutes les actions de la Ouiatchouan Falls Paper Company au nom de la Compagnie de Pulpe de Chicoutimi.
@@ -571,7 +587,7 @@
 Finalement, le 19 novembre 1942, le gouvernement du Québec achète toutes les installations de Val-Jalbert pour 1 500 000 $ à la suite de la mise en faillite de la Quebec Pulp and Paper Mills pour cause de non paiement de dettes. Le gouvernement confie alors le site au ministère des ressources hydrauliques, qui deviendra ministère des ressources naturelles. Alors qu'il en est propriétaire, le gouvernement interdit aux gens de se promener dans le village de Val-Jalbert et en interdit même l'accès à l'aide d'une clôture. Le site sera surveillé par un gardien jusqu'en 1960.
 Lors de son abandon, le village comptait une maison de pension de 20 chambres, deux magasins, une boucherie, un couvent-école, une église, un cimetière, un moulin à pulpe, un moulin à scie, un atelier de charron, un moulin à farine (le moulin qui avait été construit en 1887).
 En 1960, le site sera confié à l'Office du Tourisme de la Province de Québec (futur ministère du tourisme), il sera alors rouvert aux touristes et une série de travaux d'aménagement et de restauration sont amorcés. Entre 1960 et 1986, le ministère s'affaire à rénover et stabiliser plusieurs bâtiments comme le moulin, l'hôtel, l'étal de boucherie, le couvent-école ainsi que plusieurs maisons. Les fondations de l'église et du presbytère sont mises en valeur et les réseaux d'égout, d’aqueduc et d'électricité sont réhabilités dans le bas du village jusqu'au moulin.
-Le site historique du Village de Val-Jalbert est cédé en 1987 à la Société des établissements de plein air du Québec (SÉPAQ). En avril 1998, la MRC Le Domaine-Du-Roy se joint à la SÉPAQ dans la gestion du site. De nos jours, le site compte environ 40 employés permanents et le double lors de la saison estivale. Les revenus annuels du site sont d'environ 2 millions de dollars canadiens et chaque année le site accueille environ 150 000 visiteurs[5].
+Le site historique du Village de Val-Jalbert est cédé en 1987 à la Société des établissements de plein air du Québec (SÉPAQ). En avril 1998, la MRC Le Domaine-Du-Roy se joint à la SÉPAQ dans la gestion du site. De nos jours, le site compte environ 40 employés permanents et le double lors de la saison estivale. Les revenus annuels du site sont d'environ 2 millions de dollars canadiens et chaque année le site accueille environ 150 000 visiteurs.
 </t>
         </is>
       </c>
@@ -600,7 +616,9 @@
           <t>Attractions touristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De nos jours, cet ancien village de compagnie est un site touristique important du Domaine-du-Roy avec pour principales attractions :
 Son restaurant dans le vieux moulin ;
@@ -613,7 +631,7 @@
 Le canyon formé par le parcours de la rivière, en aval de l'usine à pulpe ;
 Les sentiers entretenu pour la pratique du ski de fond et de la raquette, l'hiver ;
 Le spectacle immersif;
-La controversé mini-centrale de la chûte Ouiatchouan, inauguré en 2015[6], comprenant un passage vers l'ancienne centrale et une reconstitution des machines se trouvant dans ce dernier construit en 1901.
+La controversé mini-centrale de la chûte Ouiatchouan, inauguré en 2015, comprenant un passage vers l'ancienne centrale et une reconstitution des machines se trouvant dans ce dernier construit en 1901.
 			Maisons de Val Jalbert.
 			La rue Saint-Georges durant l'hiver 1945-1946.
 </t>
